--- a/public/userimages/MDAEnergyAuditSample.xlsx
+++ b/public/userimages/MDAEnergyAuditSample.xlsx
@@ -7,12 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Raw data" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw data" sheetId="4" r:id="rId1"/>
     <sheet name="rules" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw data'!$A$1:$DC$3</definedName>
-  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -37,9 +34,6 @@
     <t>Telephone</t>
   </si>
   <si>
-    <t xml:space="preserve">Team </t>
-  </si>
-  <si>
     <t>LGA</t>
   </si>
   <si>
@@ -2611,7 +2605,10 @@
     <t>Zurmi</t>
   </si>
   <si>
-    <t>katsina</t>
+    <t>MDA ENERGY DATA</t>
+  </si>
+  <si>
+    <t>ABia</t>
   </si>
 </sst>
 </file>
@@ -2641,13 +2638,6 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2686,33 +2676,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2745,50 +2736,48 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2797,66 +2786,23 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3178,928 +3124,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DC6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
-    <col min="2" max="3" width="12.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="13" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="51.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="9" customWidth="1"/>
-    <col min="12" max="16" width="10.140625" style="9" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="10.42578125" style="9" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="9" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="9" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="8" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="9" customWidth="1"/>
-    <col min="23" max="26" width="10.140625" style="9" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="2.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.85546875" style="9" hidden="1" customWidth="1"/>
-    <col min="30" max="33" width="10.140625" style="9" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="2.140625" style="8" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="37" max="45" width="10.140625" style="9" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="9.7109375" style="8" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="12" style="9" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="12.7109375" style="9" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="11.42578125" style="9" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="15.42578125" style="12" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="14.140625" style="9" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="0" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="10.42578125" style="9" hidden="1" customWidth="1"/>
-    <col min="54" max="55" width="9.28515625" style="9" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="9.7109375" style="9" hidden="1" customWidth="1"/>
-    <col min="57" max="63" width="9.28515625" style="9" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="10" style="9" hidden="1" customWidth="1"/>
-    <col min="65" max="92" width="9.28515625" style="9" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="10.7109375" style="9" hidden="1" customWidth="1"/>
-    <col min="94" max="103" width="9.28515625" style="9" hidden="1" customWidth="1"/>
-    <col min="104" max="104" width="24.7109375" style="9" hidden="1" customWidth="1"/>
-    <col min="105" max="105" width="25.140625" style="9" customWidth="1"/>
-    <col min="106" max="106" width="27.28515625" style="9" customWidth="1"/>
-    <col min="107" max="107" width="37.28515625" style="9" customWidth="1"/>
-    <col min="108" max="247" width="11" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" s="15" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="16" t="s">
+        <v>860</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="F2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="J2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="V1" s="23" t="s">
+      <c r="L2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="17"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="18"/>
-      <c r="BG1" s="18"/>
-      <c r="BH1" s="18"/>
-      <c r="BI1" s="18"/>
-      <c r="BJ1" s="18"/>
-      <c r="BK1" s="18"/>
-      <c r="BL1" s="18"/>
-      <c r="BM1" s="18"/>
-      <c r="BN1" s="18"/>
-      <c r="BO1" s="18"/>
-      <c r="BP1" s="18"/>
-      <c r="BQ1" s="18"/>
-      <c r="BR1" s="22"/>
-      <c r="BS1" s="21"/>
-      <c r="BT1" s="18"/>
-      <c r="BU1" s="18"/>
-      <c r="BV1" s="18"/>
-      <c r="BW1" s="18"/>
-      <c r="BX1" s="18"/>
-      <c r="BY1" s="18"/>
-      <c r="BZ1" s="18"/>
-      <c r="CA1" s="22"/>
-      <c r="CB1" s="21"/>
-      <c r="CC1" s="18"/>
-      <c r="CD1" s="18"/>
-      <c r="CE1" s="18"/>
-      <c r="CF1" s="18"/>
-      <c r="CG1" s="18"/>
-      <c r="CH1" s="18"/>
-      <c r="CI1" s="18"/>
-      <c r="CJ1" s="18"/>
-      <c r="CK1" s="18"/>
-      <c r="CL1" s="18"/>
-      <c r="CM1" s="18"/>
-      <c r="CN1" s="18"/>
-      <c r="CO1" s="22"/>
-      <c r="CP1" s="21"/>
-      <c r="CQ1" s="18"/>
-      <c r="CR1" s="18"/>
-      <c r="CS1" s="18"/>
-      <c r="CT1" s="18"/>
-      <c r="CU1" s="22"/>
-      <c r="CV1" s="21"/>
-      <c r="CW1" s="18"/>
-      <c r="CX1" s="18"/>
-      <c r="CY1" s="22"/>
-      <c r="CZ1" s="17"/>
-      <c r="DA1" s="25" t="s">
+      <c r="M2" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="10">
+        <v>55758</v>
+      </c>
+      <c r="I3" s="7">
+        <v>76</v>
+      </c>
+      <c r="J3" s="7">
+        <v>56</v>
+      </c>
+      <c r="K3" s="7">
+        <v>4</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4">
+        <v>670000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>340</v>
+      </c>
+      <c r="J4" s="2">
+        <v>300</v>
+      </c>
+      <c r="K4" s="2">
         <v>9</v>
       </c>
-      <c r="DB1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="DC1" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="4">
-        <v>55758</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="2">
-        <v>65</v>
-      </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="2">
-        <v>56</v>
-      </c>
-      <c r="V2" s="14">
-        <v>4</v>
-      </c>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2"/>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="2"/>
-      <c r="BT2" s="2"/>
-      <c r="BU2" s="2"/>
-      <c r="BV2" s="2"/>
-      <c r="BW2" s="2"/>
-      <c r="BX2" s="2"/>
-      <c r="BY2" s="2"/>
-      <c r="BZ2" s="2"/>
-      <c r="CA2" s="2"/>
-      <c r="CB2" s="2"/>
-      <c r="CC2" s="2"/>
-      <c r="CD2" s="2"/>
-      <c r="CE2" s="2"/>
-      <c r="CF2" s="2"/>
-      <c r="CG2" s="2"/>
-      <c r="CH2" s="2"/>
-      <c r="CI2" s="2"/>
-      <c r="CJ2" s="2"/>
-      <c r="CK2" s="2"/>
-      <c r="CL2" s="2"/>
-      <c r="CM2" s="2"/>
-      <c r="CN2" s="2"/>
-      <c r="CO2" s="2"/>
-      <c r="CP2" s="2"/>
-      <c r="CQ2" s="2"/>
-      <c r="CR2" s="2"/>
-      <c r="CS2" s="2"/>
-      <c r="CT2" s="2"/>
-      <c r="CU2" s="2"/>
-      <c r="CV2" s="2"/>
-      <c r="CW2" s="2"/>
-      <c r="CX2" s="2"/>
-      <c r="CY2" s="2"/>
-      <c r="CZ2" s="2"/>
-      <c r="DA2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="DB2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="DC2" s="2"/>
-    </row>
-    <row r="3" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="L4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4">
+        <v>670000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>340</v>
+      </c>
+      <c r="J5" s="2">
+        <v>300</v>
+      </c>
+      <c r="K5" s="2">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4">
-        <v>670000</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="2">
-        <v>340</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2">
-        <v>300</v>
-      </c>
-      <c r="V3" s="2">
-        <v>9</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="2"/>
-      <c r="BR3" s="2"/>
-      <c r="BS3" s="2"/>
-      <c r="BT3" s="2"/>
-      <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-      <c r="BY3" s="2"/>
-      <c r="BZ3" s="2"/>
-      <c r="CA3" s="2"/>
-      <c r="CB3" s="2"/>
-      <c r="CC3" s="2"/>
-      <c r="CD3" s="2"/>
-      <c r="CE3" s="2"/>
-      <c r="CF3" s="2"/>
-      <c r="CG3" s="2"/>
-      <c r="CH3" s="2"/>
-      <c r="CI3" s="2"/>
-      <c r="CJ3" s="2"/>
-      <c r="CK3" s="2"/>
-      <c r="CL3" s="2"/>
-      <c r="CM3" s="2"/>
-      <c r="CN3" s="2"/>
-      <c r="CO3" s="2"/>
-      <c r="CP3" s="2"/>
-      <c r="CQ3" s="2"/>
-      <c r="CR3" s="2"/>
-      <c r="CS3" s="2"/>
-      <c r="CT3" s="2"/>
-      <c r="CU3" s="2"/>
-      <c r="CV3" s="2"/>
-      <c r="CW3" s="2"/>
-      <c r="CX3" s="2"/>
-      <c r="CY3" s="2"/>
-      <c r="CZ3" s="2"/>
-      <c r="DA3" s="2" t="s">
+      <c r="M5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="DB3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="DC3" s="2"/>
-    </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="4">
-        <v>670000</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="2">
-        <v>340</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2">
-        <v>300</v>
-      </c>
-      <c r="V4" s="2">
-        <v>9</v>
-      </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
-      <c r="BI4" s="2"/>
-      <c r="BJ4" s="2"/>
-      <c r="BK4" s="2"/>
-      <c r="BL4" s="2"/>
-      <c r="BM4" s="2"/>
-      <c r="BN4" s="2"/>
-      <c r="BO4" s="2"/>
-      <c r="BP4" s="2"/>
-      <c r="BQ4" s="2"/>
-      <c r="BR4" s="2"/>
-      <c r="BS4" s="2"/>
-      <c r="BT4" s="2"/>
-      <c r="BU4" s="2"/>
-      <c r="BV4" s="2"/>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
-      <c r="BY4" s="2"/>
-      <c r="BZ4" s="2"/>
-      <c r="CA4" s="2"/>
-      <c r="CB4" s="2"/>
-      <c r="CC4" s="2"/>
-      <c r="CD4" s="2"/>
-      <c r="CE4" s="2"/>
-      <c r="CF4" s="2"/>
-      <c r="CG4" s="2"/>
-      <c r="CH4" s="2"/>
-      <c r="CI4" s="2"/>
-      <c r="CJ4" s="2"/>
-      <c r="CK4" s="2"/>
-      <c r="CL4" s="2"/>
-      <c r="CM4" s="2"/>
-      <c r="CN4" s="2"/>
-      <c r="CO4" s="2"/>
-      <c r="CP4" s="2"/>
-      <c r="CQ4" s="2"/>
-      <c r="CR4" s="2"/>
-      <c r="CS4" s="2"/>
-      <c r="CT4" s="2"/>
-      <c r="CU4" s="2"/>
-      <c r="CV4" s="2"/>
-      <c r="CW4" s="2"/>
-      <c r="CX4" s="2"/>
-      <c r="CY4" s="2"/>
-      <c r="CZ4" s="2"/>
-      <c r="DA4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="DB4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="DC4" s="2"/>
-    </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4">
-        <v>670000</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="2">
-        <v>340</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2">
-        <v>300</v>
-      </c>
-      <c r="V5" s="2">
-        <v>9</v>
-      </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
-      <c r="BK5" s="2"/>
-      <c r="BL5" s="2"/>
-      <c r="BM5" s="2"/>
-      <c r="BN5" s="2"/>
-      <c r="BO5" s="2"/>
-      <c r="BP5" s="2"/>
-      <c r="BQ5" s="2"/>
-      <c r="BR5" s="2"/>
-      <c r="BS5" s="2"/>
-      <c r="BT5" s="2"/>
-      <c r="BU5" s="2"/>
-      <c r="BV5" s="2"/>
-      <c r="BW5" s="2"/>
-      <c r="BX5" s="2"/>
-      <c r="BY5" s="2"/>
-      <c r="BZ5" s="2"/>
-      <c r="CA5" s="2"/>
-      <c r="CB5" s="2"/>
-      <c r="CC5" s="2"/>
-      <c r="CD5" s="2"/>
-      <c r="CE5" s="2"/>
-      <c r="CF5" s="2"/>
-      <c r="CG5" s="2"/>
-      <c r="CH5" s="2"/>
-      <c r="CI5" s="2"/>
-      <c r="CJ5" s="2"/>
-      <c r="CK5" s="2"/>
-      <c r="CL5" s="2"/>
-      <c r="CM5" s="2"/>
-      <c r="CN5" s="2"/>
-      <c r="CO5" s="2"/>
-      <c r="CP5" s="2"/>
-      <c r="CQ5" s="2"/>
-      <c r="CR5" s="2"/>
-      <c r="CS5" s="2"/>
-      <c r="CT5" s="2"/>
-      <c r="CU5" s="2"/>
-      <c r="CV5" s="2"/>
-      <c r="CW5" s="2"/>
-      <c r="CX5" s="2"/>
-      <c r="CY5" s="2"/>
-      <c r="CZ5" s="2"/>
-      <c r="DA5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="DB5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="DC5" s="2"/>
-    </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>861</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4">
+        <v>670000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>340</v>
+      </c>
+      <c r="J6" s="2">
+        <v>300</v>
+      </c>
+      <c r="K6" s="2">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="M6" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4">
         <v>670000</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="2">
+      <c r="I7" s="2">
         <v>340</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2">
+      <c r="J7" s="2">
         <v>300</v>
       </c>
-      <c r="V6" s="2">
+      <c r="K7" s="2">
         <v>9</v>
       </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="2"/>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
-      <c r="BH6" s="2"/>
-      <c r="BI6" s="2"/>
-      <c r="BJ6" s="2"/>
-      <c r="BK6" s="2"/>
-      <c r="BL6" s="2"/>
-      <c r="BM6" s="2"/>
-      <c r="BN6" s="2"/>
-      <c r="BO6" s="2"/>
-      <c r="BP6" s="2"/>
-      <c r="BQ6" s="2"/>
-      <c r="BR6" s="2"/>
-      <c r="BS6" s="2"/>
-      <c r="BT6" s="2"/>
-      <c r="BU6" s="2"/>
-      <c r="BV6" s="2"/>
-      <c r="BW6" s="2"/>
-      <c r="BX6" s="2"/>
-      <c r="BY6" s="2"/>
-      <c r="BZ6" s="2"/>
-      <c r="CA6" s="2"/>
-      <c r="CB6" s="2"/>
-      <c r="CC6" s="2"/>
-      <c r="CD6" s="2"/>
-      <c r="CE6" s="2"/>
-      <c r="CF6" s="2"/>
-      <c r="CG6" s="2"/>
-      <c r="CH6" s="2"/>
-      <c r="CI6" s="2"/>
-      <c r="CJ6" s="2"/>
-      <c r="CK6" s="2"/>
-      <c r="CL6" s="2"/>
-      <c r="CM6" s="2"/>
-      <c r="CN6" s="2"/>
-      <c r="CO6" s="2"/>
-      <c r="CP6" s="2"/>
-      <c r="CQ6" s="2"/>
-      <c r="CR6" s="2"/>
-      <c r="CS6" s="2"/>
-      <c r="CT6" s="2"/>
-      <c r="CU6" s="2"/>
-      <c r="CV6" s="2"/>
-      <c r="CW6" s="2"/>
-      <c r="CX6" s="2"/>
-      <c r="CY6" s="2"/>
-      <c r="CZ6" s="2"/>
-      <c r="DA6" s="2" t="s">
+      <c r="L7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="DB6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="DC6" s="2"/>
     </row>
   </sheetData>
-  <dataConsolidate/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6 E2:E6 W2:Z6 AK2:AS6 L2:T6 AD2:AG6">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Note" error="Please enter a number only" promptTitle="Note" prompt="Please enter a number only" sqref="I2:I6">
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Note" error="Please enter a number only" promptTitle="Note" prompt="Please enter a number only" sqref="H3:H7">
       <formula1>-10000000000000000</formula1>
       <formula2>100000000000000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number only" sqref="U2:V6 AH2:AJ6 AT2:AY6 K2:K6 BA2:CZ6 AA2:AC6">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number only" sqref="I3:K7">
       <formula1>-100000000000000</formula1>
       <formula2>100000000000000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="error" error="please enter a number" sqref="AY1">
-      <formula1>-10000000000000000</formula1>
-      <formula2>1E+28</formula2>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please Select State from the dropdown list only">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>rules!$D$1:$D$774</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>rules!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>B4:B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>rules!$B$1:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>rules!$A$1:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
+          <xm:sqref>G3:G7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>rules!$B$1:$B$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please Select State from the dropdown list only">
           <x14:formula1>
             <xm:f>rules!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>rules!$D$1:$D$774</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C6</xm:sqref>
+          <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -4123,4091 +3483,4091 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="206" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D209" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D211" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="213" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D213" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="215" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="217" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D218" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D219" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="221" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="222" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D222" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="223" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="224" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D225" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="226" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D226" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="227" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D227" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="228" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="229" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D229" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="230" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="231" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D231" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="232" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D232" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="233" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="234" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="235" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="236" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="237" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="238" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="239" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D239" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="240" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="241" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="242" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="243" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="244" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="245" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="246" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="247" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="248" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="250" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="251" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="252" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="253" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="254" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="255" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D255" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="256" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="257" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="258" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="259" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="260" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="261" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="262" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="263" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="264" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="265" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="266" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="267" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="268" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="269" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="270" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="271" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="272" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="273" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="274" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="276" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="277" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="278" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="279" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="280" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D280" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="281" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="282" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D282" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="283" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="284" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="285" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="286" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="287" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="288" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="289" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="290" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="291" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D291" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="292" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D292" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="293" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D293" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="294" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D294" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="295" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="296" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="297" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D297" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="298" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D298" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="299" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="300" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D300" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="301" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D301" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="302" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D302" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="303" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D303" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="304" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D304" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="305" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D305" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="306" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="307" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="308" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D308" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="309" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D309" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="310" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="311" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D311" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="312" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="313" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="314" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D314" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="315" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D315" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="316" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D316" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="317" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D317" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="318" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D318" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="319" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D319" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="320" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D320" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="321" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D321" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="322" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D322" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="323" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="324" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D324" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="325" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D325" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="326" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D326" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="327" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D327" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="328" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D328" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="329" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D329" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="330" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D330" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="331" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D331" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="332" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="333" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D333" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="334" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="335" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="336" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D336" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="337" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="338" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="339" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D339" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="340" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D340" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="341" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D341" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="342" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="343" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="344" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D344" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="345" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="346" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D346" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="347" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="348" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D348" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="349" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D349" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="350" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D350" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="351" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D351" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="352" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D352" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="353" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D353" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="354" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D354" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="355" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D355" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="356" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D356" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="357" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D357" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="358" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D358" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="359" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D359" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="360" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D360" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="361" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D361" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="362" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D362" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="363" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D363" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="364" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D364" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="365" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D365" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="366" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D366" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="367" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D367" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="368" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D368" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="369" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D369" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="370" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D370" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="371" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D371" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="372" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D372" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="373" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D373" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="374" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D374" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="375" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D375" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="376" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D376" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="377" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D377" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="378" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D378" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="379" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D379" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="380" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D380" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="381" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D381" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="382" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D382" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="383" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D383" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="384" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D384" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="385" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D385" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="386" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D386" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="387" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D387" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="388" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D388" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="389" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D389" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="390" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D390" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="391" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D391" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="392" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D392" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="393" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D393" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="394" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D394" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="395" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D395" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="396" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D396" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="397" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D397" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="398" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D398" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="399" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D399" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="400" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D400" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="401" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D401" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="402" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D402" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="403" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D403" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="404" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D404" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="405" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D405" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="406" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D406" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="407" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D407" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="408" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D408" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="409" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D409" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="410" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D410" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="411" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D411" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="412" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D412" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="413" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D413" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="414" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D414" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="415" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D415" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="416" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D416" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="417" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D417" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="418" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D418" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="419" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D419" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="420" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D420" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="421" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D421" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="422" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D422" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="423" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D423" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="424" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D424" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="425" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D425" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="426" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D426" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="427" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D427" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="428" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D428" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="429" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D429" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="430" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D430" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="431" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D431" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="432" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D432" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="433" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D433" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="434" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D434" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="435" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D435" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="436" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D436" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="437" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D437" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="438" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D438" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="439" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D439" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="440" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D440" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="441" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D441" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="442" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D442" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="443" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D443" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="444" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D444" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="445" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D445" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="446" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D446" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="447" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D447" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="448" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D448" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="449" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D449" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="450" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D450" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="451" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D451" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="452" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D452" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="453" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D453" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="454" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D454" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="455" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D455" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="456" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D456" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="457" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D457" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="458" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D458" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="459" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D459" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="460" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D460" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="461" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D461" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="462" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D462" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="463" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D463" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="464" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D464" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="465" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D465" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="466" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D466" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="467" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D467" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="468" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D468" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="469" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D469" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="470" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D470" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="471" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D471" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="472" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D472" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="473" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D473" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="474" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D474" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="475" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D475" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="476" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D476" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="477" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D477" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="478" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D478" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="479" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D479" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="480" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D480" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="481" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D481" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="482" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D482" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="483" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D483" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="484" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D484" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="485" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D485" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="486" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D486" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="487" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D487" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="488" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D488" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="489" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D489" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="490" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D490" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="491" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D491" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="492" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D492" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="493" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D493" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="494" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D494" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="495" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D495" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="496" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D496" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="497" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D497" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="498" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D498" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="499" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D499" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="500" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D500" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="501" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D501" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="502" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D502" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="503" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D503" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="504" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D504" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="505" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D505" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="506" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D506" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="507" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D507" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="508" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D508" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="509" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D509" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="510" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D510" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="511" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D511" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="512" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D512" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="513" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D513" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="514" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D514" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="515" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D515" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="516" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D516" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="517" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D517" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="518" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D518" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="519" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D519" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="520" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D520" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="521" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D521" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="522" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D522" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="523" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D523" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="524" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D524" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="525" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D525" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="526" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D526" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="527" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D527" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="528" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D528" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="529" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D529" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="530" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D530" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="531" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D531" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="532" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D532" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="533" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D533" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="534" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D534" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="535" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D535" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="536" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D536" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="537" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D537" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="538" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D538" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="539" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D539" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="540" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D540" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="541" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D541" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="542" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D542" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="543" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D543" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="544" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D544" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="545" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D545" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="546" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D546" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="547" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D547" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="548" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D548" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="549" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D549" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="550" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D550" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="551" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D551" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="552" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D552" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="553" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D553" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="554" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D554" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="555" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D555" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="556" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D556" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="557" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D557" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="558" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D558" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="559" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D559" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="560" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D560" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="561" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D561" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="562" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D562" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="563" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D563" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="564" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D564" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="565" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D565" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="566" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D566" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="567" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D567" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="568" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D568" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="569" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D569" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="570" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D570" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="571" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D571" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="572" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D572" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="573" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D573" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="574" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D574" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="575" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D575" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="576" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D576" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="577" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D577" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="578" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D578" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="579" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D579" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="580" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D580" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="581" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D581" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="582" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D582" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="583" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D583" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="584" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D584" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="585" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D585" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="586" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D586" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="587" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D587" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="588" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D588" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="589" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D589" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="590" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D590" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="591" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D591" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="592" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D592" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="593" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D593" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="594" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D594" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="595" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D595" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="596" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D596" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="597" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D597" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="598" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D598" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="599" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D599" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="600" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D600" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="601" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D601" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="602" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D602" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="603" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D603" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="604" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D604" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="605" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D605" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="606" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D606" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="607" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D607" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="608" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D608" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="609" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D609" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="610" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D610" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="611" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D611" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="612" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D612" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="613" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D613" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="614" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D614" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="615" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D615" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="616" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D616" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="617" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D617" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="618" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D618" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="619" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D619" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="620" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D620" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="621" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D621" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="622" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D622" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="623" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D623" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="624" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D624" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="625" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D625" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="626" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D626" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="627" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D627" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="628" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D628" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="629" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D629" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="630" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D630" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="631" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D631" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="632" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D632" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="633" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D633" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="634" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D634" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="635" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D635" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="636" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D636" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="637" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D637" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="638" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D638" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="639" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D639" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="640" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D640" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="641" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D641" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="642" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D642" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="643" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D643" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="644" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D644" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="645" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D645" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="646" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D646" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="647" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D647" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="648" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D648" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="649" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D649" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="650" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D650" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="651" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D651" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="652" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D652" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="653" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D653" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="654" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D654" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="655" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D655" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="656" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D656" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="657" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D657" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="658" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D658" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="659" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D659" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="660" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D660" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="661" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D661" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="662" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D662" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="663" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D663" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="664" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D664" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="665" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D665" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="666" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D666" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="667" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D667" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="668" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D668" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="669" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D669" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="670" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D670" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="671" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D671" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="672" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D672" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="673" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D673" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="674" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D674" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="675" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D675" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="676" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D676" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="677" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D677" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="678" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D678" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="679" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D679" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="680" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D680" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="681" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D681" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="682" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D682" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="683" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D683" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="684" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D684" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="685" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D685" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="686" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D686" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="687" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D687" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="688" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D688" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="689" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D689" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="690" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D690" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="691" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D691" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="692" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D692" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="693" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D693" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="694" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D694" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="695" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D695" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="696" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D696" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="697" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D697" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="698" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D698" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="699" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D699" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="700" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D700" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="701" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D701" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="702" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D702" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="703" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D703" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="704" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D704" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="705" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D705" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="706" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D706" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="707" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D707" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="708" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D708" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="709" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D709" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="710" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D710" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="711" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D711" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="712" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D712" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="713" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D713" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="714" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D714" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="715" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D715" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="716" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D716" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="717" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D717" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="718" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D718" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="719" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D719" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="720" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D720" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="721" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D721" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="722" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D722" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="723" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D723" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="724" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D724" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="725" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D725" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="726" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D726" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="727" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D727" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="728" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D728" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="729" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D729" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="730" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D730" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="731" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D731" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="732" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D732" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="733" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D733" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="734" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D734" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="735" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D735" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="736" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D736" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="737" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D737" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="738" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D738" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="739" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D739" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="740" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D740" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="741" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D741" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="742" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D742" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="743" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D743" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="744" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D744" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="745" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D745" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="746" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D746" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="747" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D747" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="748" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D748" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="749" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D749" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="750" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D750" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="751" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D751" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="752" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D752" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="753" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D753" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="754" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D754" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="755" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D755" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="756" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D756" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="757" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D757" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="758" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D758" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="759" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D759" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="760" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D760" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="761" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D761" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="762" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D762" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="763" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D763" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="764" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D764" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="765" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D765" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="766" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D766" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="767" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D767" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="768" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D768" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="769" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D769" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="770" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D770" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="771" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D771" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="772" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D772" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="773" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D773" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="774" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D774" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
   </sheetData>

--- a/public/userimages/MDAEnergyAuditSample.xlsx
+++ b/public/userimages/MDAEnergyAuditSample.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="883">
   <si>
     <t>S/N</t>
   </si>
@@ -274,30 +274,12 @@
     <t>1</t>
   </si>
   <si>
-    <t>laskdjfjlakdfj</t>
-  </si>
-  <si>
-    <t>lkdjflakdsjfkakhhdfhaldkkfl</t>
-  </si>
-  <si>
-    <t>nsdnxbsjsnbn</t>
-  </si>
-  <si>
     <t>657464746</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>laksjlkjlkjlkkjdfisdf</t>
-  </si>
-  <si>
-    <t>sldkfalsdfuds,,fsdsdfld</t>
-  </si>
-  <si>
-    <t>jdkjssdhf dskkfjasdflkkasdsjfl dslfkajd</t>
-  </si>
-  <si>
     <t>08079776855</t>
   </si>
   <si>
@@ -2609,6 +2591,87 @@
   </si>
   <si>
     <t>ABia</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>TRADE &amp; TOURISM</t>
+  </si>
+  <si>
+    <t>INFORMATION</t>
+  </si>
+  <si>
+    <t>NIGERIA POLICE FORCE</t>
+  </si>
+  <si>
+    <t>AGRICULTURE</t>
+  </si>
+  <si>
+    <t>NITEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HENIGERIA  1      HOSPITAL ROAD            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDERALPRI  1A     POUND ROAD               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HENIGERIA  POLICE  QUARTERS                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGERIANPO         NDIOLUMBE                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITELABA    ABA                             </t>
+  </si>
+  <si>
+    <t>56/01/32/0035-01</t>
+  </si>
+  <si>
+    <t>56/01/32/0160-01</t>
+  </si>
+  <si>
+    <t>56/01/32/0222-01</t>
+  </si>
+  <si>
+    <t>56/01/32/0179-01</t>
+  </si>
+  <si>
+    <t>56/01/32/0099-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 IKOT EKPENE ROAD, OGBOR HILL         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPOST      7      ASA ROAD    B/4 FIRST BANK PLC   ABA SOUTH L.G.A ABIA STATE             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TASTUDIO   CNANNE L 6 ABA OPP HARIS DR OFF IKOT EKPENE RD ABA SOUTH L.G.A  ABIA STATE           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 UKOR LANE NGODO PWD, </t>
+  </si>
+  <si>
+    <t>1 NWELE STR. ABAKALIKI EBONYI STATE</t>
+  </si>
+  <si>
+    <t>Longitude/Latitude</t>
+  </si>
+  <si>
+    <t>6.0436/8.09333</t>
+  </si>
+  <si>
+    <t>6.80279/4.12306</t>
+  </si>
+  <si>
+    <t>8.88275/3.61898</t>
+  </si>
+  <si>
+    <t>7.65172/6.6169</t>
+  </si>
+  <si>
+    <t>5.05113/5.05113</t>
   </si>
 </sst>
 </file>
@@ -2618,7 +2681,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2632,12 +2695,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2679,6 +2736,19 @@
     <font>
       <b/>
       <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2748,60 +2818,77 @@
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3116,7 +3203,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3124,10 +3211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" activeCellId="1" sqref="O8 G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3145,84 +3232,93 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="16" t="s">
-        <v>860</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-    </row>
-    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:15" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="21" t="s">
+        <v>854</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>84</v>
+      <c r="E3" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>857</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>29</v>
@@ -3230,184 +3326,214 @@
       <c r="H3" s="10">
         <v>55758</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="11">
         <v>76</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="11">
         <v>56</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="11">
         <v>4</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="15" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="18">
+        <v>670000</v>
+      </c>
+      <c r="I4" s="19">
+        <v>340</v>
+      </c>
+      <c r="J4" s="19">
+        <v>300</v>
+      </c>
+      <c r="K4" s="19">
+        <v>9</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N4" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="18">
+        <v>670000</v>
+      </c>
+      <c r="I5" s="19">
+        <v>340</v>
+      </c>
+      <c r="J5" s="19">
+        <v>300</v>
+      </c>
+      <c r="K5" s="19">
+        <v>9</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E6" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="18">
+        <v>670000</v>
+      </c>
+      <c r="I6" s="19">
+        <v>340</v>
+      </c>
+      <c r="J6" s="19">
+        <v>300</v>
+      </c>
+      <c r="K6" s="19">
+        <v>9</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="B7" s="16" t="s">
+        <v>855</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="18">
         <v>670000</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I7" s="19">
         <v>340</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J7" s="19">
         <v>300</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K7" s="19">
         <v>9</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4">
-        <v>670000</v>
-      </c>
-      <c r="I5" s="2">
-        <v>340</v>
-      </c>
-      <c r="J5" s="2">
-        <v>300</v>
-      </c>
-      <c r="K5" s="2">
-        <v>9</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4">
-        <v>670000</v>
-      </c>
-      <c r="I6" s="2">
-        <v>340</v>
-      </c>
-      <c r="J6" s="2">
-        <v>300</v>
-      </c>
-      <c r="K6" s="2">
-        <v>9</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4">
-        <v>670000</v>
-      </c>
-      <c r="I7" s="2">
-        <v>340</v>
-      </c>
-      <c r="J7" s="2">
-        <v>300</v>
-      </c>
-      <c r="K7" s="2">
-        <v>9</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>91</v>
+      <c r="L7" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -3469,9 +3595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D774"/>
   <sheetViews>
-    <sheetView topLeftCell="A750" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3492,7 +3616,7 @@
         <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3506,7 +3630,7 @@
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3520,7 +3644,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3534,7 +3658,7 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3548,7 +3672,7 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3562,7 +3686,7 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3576,7 +3700,7 @@
         <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3590,7 +3714,7 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3604,7 +3728,7 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3618,7 +3742,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3632,7 +3756,7 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3643,7 +3767,7 @@
         <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3654,7 +3778,7 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3665,7 +3789,7 @@
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3676,7 +3800,7 @@
         <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3687,7 +3811,7 @@
         <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3698,7 +3822,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3709,7 +3833,7 @@
         <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3720,7 +3844,7 @@
         <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3731,7 +3855,7 @@
         <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3742,7 +3866,7 @@
         <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3753,7 +3877,7 @@
         <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3764,7 +3888,7 @@
         <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3775,7 +3899,7 @@
         <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3786,7 +3910,7 @@
         <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3794,7 +3918,7 @@
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3802,7 +3926,7 @@
         <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3810,7 +3934,7 @@
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3818,7 +3942,7 @@
         <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3826,7 +3950,7 @@
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3834,7 +3958,7 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3842,7 +3966,7 @@
         <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
@@ -3850,7 +3974,7 @@
         <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
@@ -3858,7 +3982,7 @@
         <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
@@ -3866,7 +3990,7 @@
         <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
@@ -3874,7 +3998,7 @@
         <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
@@ -3882,172 +4006,172 @@
         <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
@@ -4057,102 +4181,102 @@
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.25">
@@ -4162,612 +4286,612 @@
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="206" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D209" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D211" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="213" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D213" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="215" spans="4:4" x14ac:dyDescent="0.25">
@@ -4777,357 +4901,357 @@
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="217" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D218" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D219" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="220" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="221" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="222" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D222" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="223" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="224" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D225" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="226" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D226" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="227" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D227" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="228" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="229" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D229" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="230" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="231" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D231" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="232" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D232" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="233" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="234" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="235" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="236" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="237" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="238" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="239" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D239" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="240" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="241" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="242" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="243" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="244" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="245" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="246" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="247" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="248" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="250" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="251" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="252" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="253" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="254" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="255" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D255" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="256" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="257" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="258" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="259" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="260" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="261" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="262" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="263" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="264" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="265" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="266" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="267" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="268" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="269" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="270" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="271" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="272" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="273" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="274" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="276" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="277" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="278" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="279" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="280" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D280" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="281" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="282" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D282" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="283" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="284" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="285" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="286" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="287" spans="4:4" x14ac:dyDescent="0.25">
@@ -5137,732 +5261,732 @@
     </row>
     <row r="288" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="289" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="290" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="291" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D291" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="292" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D292" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="293" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D293" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="294" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D294" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="295" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="296" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="297" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D297" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="298" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D298" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="299" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="300" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D300" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="301" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D301" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="302" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D302" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="303" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D303" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="304" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D304" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="305" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D305" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="306" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="307" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="308" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D308" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="309" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D309" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="310" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="311" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D311" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="312" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="313" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="314" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D314" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="315" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D315" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="316" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D316" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="317" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D317" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="318" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D318" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="319" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D319" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="320" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D320" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="321" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D321" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="322" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D322" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="323" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="324" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D324" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="325" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D325" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="326" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D326" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="327" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D327" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="328" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D328" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="329" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D329" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="330" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D330" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="331" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D331" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="332" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="333" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D333" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="334" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="335" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="336" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D336" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="337" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="338" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="339" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D339" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="340" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D340" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="341" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D341" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="342" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="343" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="344" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D344" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="345" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="346" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D346" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="347" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="348" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D348" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="349" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D349" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="350" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D350" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="351" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D351" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="352" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D352" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="353" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D353" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="354" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D354" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="355" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D355" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="356" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D356" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="357" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D357" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="358" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D358" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="359" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D359" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="360" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D360" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="361" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D361" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="362" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D362" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="363" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D363" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="364" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D364" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="365" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D365" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="366" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D366" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="367" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D367" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="368" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D368" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="369" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D369" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="370" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D370" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="371" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D371" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="372" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D372" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="373" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D373" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="374" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D374" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="375" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D375" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="376" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D376" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="377" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D377" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="378" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D378" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="379" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D379" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="380" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D380" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="381" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D381" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="382" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D382" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="383" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D383" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="384" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D384" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="385" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D385" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="386" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D386" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="387" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D387" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="388" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D388" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="389" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D389" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="390" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D390" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="391" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D391" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="392" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D392" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="393" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D393" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="394" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D394" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="395" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D395" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="396" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D396" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="397" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D397" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="398" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D398" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="399" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D399" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="400" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D400" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="401" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D401" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="402" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D402" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="403" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D403" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="404" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D404" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="405" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D405" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="406" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D406" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="407" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D407" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="408" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D408" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="409" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D409" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="410" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D410" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="411" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D411" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="412" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D412" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="413" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D413" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="414" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D414" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="415" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D415" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="416" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D416" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="417" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D417" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="418" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D418" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="419" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D419" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="420" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D420" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="421" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D421" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="422" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D422" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="423" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D423" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="424" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D424" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="425" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D425" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="426" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D426" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="427" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D427" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="428" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D428" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="429" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D429" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="430" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D430" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="431" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D431" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="432" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D432" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="433" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D433" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="434" spans="4:4" x14ac:dyDescent="0.25">
@@ -5872,222 +5996,222 @@
     </row>
     <row r="435" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D435" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="436" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D436" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="437" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D437" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="438" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D438" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="439" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D439" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="440" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D440" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="441" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D441" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="442" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D442" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="443" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D443" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="444" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D444" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="445" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D445" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="446" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D446" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="447" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D447" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="448" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D448" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="449" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D449" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="450" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D450" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="451" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D451" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="452" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D452" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="453" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D453" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="454" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D454" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="455" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D455" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="456" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D456" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="457" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D457" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="458" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D458" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="459" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D459" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="460" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D460" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="461" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D461" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="462" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D462" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="463" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D463" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="464" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D464" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="465" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D465" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="466" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D466" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="467" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D467" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="468" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D468" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="469" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D469" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="470" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D470" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="471" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D471" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="472" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D472" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="473" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D473" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="474" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D474" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="475" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D475" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="476" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D476" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="477" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D477" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="478" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D478" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="479" spans="4:4" x14ac:dyDescent="0.25">
@@ -6097,67 +6221,67 @@
     </row>
     <row r="480" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D480" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="481" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D481" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="482" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D482" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="483" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D483" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="484" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D484" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="485" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D485" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="486" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D486" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="487" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D487" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="488" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D488" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="489" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D489" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="490" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D490" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="491" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D491" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="492" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D492" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="493" spans="4:4" x14ac:dyDescent="0.25">
@@ -6167,202 +6291,202 @@
     </row>
     <row r="494" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D494" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="495" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D495" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="496" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D496" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="497" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D497" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="498" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D498" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="499" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D499" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="500" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D500" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="501" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D501" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="502" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D502" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="503" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D503" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="504" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D504" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="505" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D505" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="506" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D506" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="507" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D507" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="508" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D508" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="509" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D509" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="510" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D510" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="511" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D511" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="512" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D512" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="513" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D513" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="514" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D514" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="515" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D515" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="516" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D516" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="517" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D517" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="518" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D518" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="519" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D519" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="520" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D520" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="521" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D521" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="522" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D522" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="523" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D523" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="524" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D524" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="525" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D525" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="526" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D526" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="527" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D527" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="528" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D528" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="529" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D529" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="530" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D530" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="531" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D531" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="532" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D532" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="533" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D533" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="534" spans="4:4" x14ac:dyDescent="0.25">
@@ -6372,1202 +6496,1202 @@
     </row>
     <row r="535" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D535" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="536" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D536" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="537" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D537" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="538" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D538" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="539" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D539" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="540" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D540" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="541" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D541" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="542" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D542" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="543" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D543" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="544" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D544" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="545" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D545" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="546" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D546" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="547" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D547" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="548" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D548" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="549" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D549" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="550" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D550" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="551" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D551" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="552" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D552" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="553" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D553" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="554" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D554" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="555" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D555" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="556" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D556" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="557" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D557" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="558" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D558" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="559" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D559" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="560" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D560" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="561" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D561" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="562" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D562" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="563" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D563" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="564" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D564" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="565" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D565" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="566" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D566" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="567" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D567" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="568" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D568" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="569" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D569" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="570" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D570" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="571" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D571" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="572" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D572" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="573" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D573" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="574" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D574" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="575" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D575" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="576" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D576" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="577" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D577" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="578" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D578" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="579" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D579" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="580" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D580" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="581" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D581" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="582" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D582" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="583" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D583" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="584" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D584" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="585" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D585" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="586" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D586" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="587" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D587" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="588" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D588" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="589" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D589" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="590" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D590" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="591" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D591" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="592" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D592" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="593" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D593" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="594" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D594" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="595" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D595" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="596" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D596" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="597" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D597" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="598" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D598" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="599" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D599" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="600" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D600" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="601" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D601" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="602" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D602" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="603" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D603" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="604" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D604" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="605" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D605" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="606" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D606" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="607" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D607" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="608" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D608" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="609" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D609" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="610" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D610" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="611" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D611" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="612" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D612" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="613" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D613" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="614" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D614" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="615" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D615" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="616" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D616" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="617" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D617" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="618" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D618" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="619" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D619" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="620" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D620" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="621" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D621" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="622" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D622" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="623" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D623" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="624" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D624" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="625" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D625" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="626" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D626" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="627" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D627" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="628" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D628" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="629" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D629" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="630" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D630" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="631" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D631" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="632" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D632" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="633" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D633" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="634" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D634" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="635" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D635" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="636" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D636" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="637" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D637" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="638" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D638" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="639" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D639" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="640" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D640" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="641" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D641" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="642" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D642" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="643" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D643" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="644" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D644" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="645" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D645" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="646" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D646" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="647" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D647" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="648" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D648" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="649" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D649" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="650" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D650" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="651" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D651" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="652" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D652" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="653" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D653" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="654" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D654" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="655" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D655" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="656" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D656" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="657" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D657" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="658" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D658" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="659" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D659" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="660" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D660" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="661" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D661" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="662" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D662" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="663" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D663" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="664" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D664" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="665" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D665" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="666" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D666" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="667" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D667" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="668" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D668" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="669" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D669" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="670" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D670" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="671" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D671" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="672" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D672" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="673" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D673" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="674" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D674" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="675" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D675" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="676" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D676" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="677" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D677" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="678" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D678" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="679" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D679" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="680" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D680" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="681" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D681" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="682" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D682" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="683" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D683" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="684" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D684" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="685" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D685" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="686" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D686" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="687" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D687" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="688" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D688" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="689" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D689" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="690" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D690" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="691" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D691" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="692" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D692" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="693" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D693" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="694" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D694" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="695" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D695" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="696" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D696" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="697" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D697" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="698" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D698" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="699" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D699" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="700" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D700" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="701" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D701" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="702" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D702" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="703" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D703" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="704" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D704" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="705" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D705" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="706" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D706" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="707" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D707" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="708" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D708" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="709" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D709" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="710" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D710" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="711" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D711" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="712" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D712" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="713" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D713" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="714" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D714" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="715" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D715" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="716" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D716" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="717" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D717" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="718" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D718" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="719" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D719" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="720" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D720" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="721" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D721" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="722" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D722" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="723" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D723" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="724" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D724" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="725" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D725" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="726" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D726" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="727" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D727" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="728" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D728" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="729" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D729" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="730" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D730" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="731" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D731" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="732" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D732" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="733" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D733" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="734" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D734" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="735" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D735" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="736" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D736" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="737" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D737" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="738" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D738" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="739" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D739" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="740" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D740" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="741" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D741" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="742" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D742" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="743" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D743" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="744" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D744" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="745" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D745" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="746" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D746" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="747" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D747" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="748" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D748" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="749" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D749" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="750" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D750" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="751" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D751" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="752" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D752" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="753" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D753" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="754" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D754" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="755" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D755" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="756" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D756" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="757" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D757" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="758" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D758" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="759" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D759" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="760" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D760" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="761" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D761" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="762" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D762" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="763" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D763" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="764" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D764" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="765" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D765" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="766" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D766" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="767" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D767" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="768" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D768" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="769" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D769" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="770" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D770" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="771" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D771" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="772" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D772" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="773" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D773" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="774" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D774" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
